--- a/all_familys_cor_MSD.xlsx
+++ b/all_familys_cor_MSD.xlsx
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2181,18 +2181,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:E13 F1:N1">
     <cfRule type="colorScale" priority="6">
